--- a/plantillasSap/15122022/5385-15122022.xlsx
+++ b/plantillasSap/15122022/5385-15122022.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-60" yWindow="-60" windowWidth="20610" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UNION" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="UNION" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'UNION'!$A$16:$E$64</definedName>
@@ -722,10 +722,10 @@
     </row>
     <row r="9" ht="13.5" customHeight="1" thickBot="1">
       <c r="A9" s="24" t="n">
-        <v>50002.81</v>
+        <v>60417.89</v>
       </c>
       <c r="B9" s="24" t="n">
-        <v>60417.89</v>
+        <v>42989.12</v>
       </c>
       <c r="C9" s="18" t="n"/>
       <c r="D9" s="20" t="n"/>
@@ -839,7 +839,7 @@
     <row r="17" ht="17.25" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>14/12/2022</t>
+          <t>15/12/2022</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -865,17 +865,17 @@
     <row r="18" ht="17.25" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>14/12/2022</t>
+          <t>15/12/2022</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>351348</t>
+          <t>204942</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">QR DE RUBEN ANTONIO </t>
+          <t>QR DE SILVESTRO SAIN</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -884,24 +884,24 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>10395.6</v>
+        <v>144.6</v>
       </c>
       <c r="F18" s="14" t="n"/>
     </row>
     <row r="19" ht="17.25" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>14/12/2022</t>
+          <t>15/12/2022</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>463018</t>
+          <t>238231</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DE INDUSTRIAS VENADO</t>
+          <t>QR DE GLORIA ESTEFAN</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -910,24 +910,24 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>105000</v>
+        <v>308.91</v>
       </c>
       <c r="F19" s="14" t="n"/>
     </row>
     <row r="20" ht="17.25" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>14/12/2022</t>
+          <t>15/12/2022</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>38097</t>
+          <t>535139</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">PagoACH-2915069     </t>
+          <t xml:space="preserve">PagoHAB-2920339     </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -936,76 +936,76 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-16555.16</v>
+        <v>-2500</v>
       </c>
       <c r="F20" s="14" t="n"/>
     </row>
     <row r="21" ht="17.25" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>14/12/2022</t>
+          <t>15/12/2022</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>38196</t>
+          <t>379033</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">PagoACH-2915035     </t>
+          <t>DE INDUSTRIAS VENADO</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Z002</t>
+          <t>Z001</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-11743.86</v>
+        <v>212000</v>
       </c>
       <c r="F21" s="14" t="n"/>
     </row>
     <row r="22" ht="17.25" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>14/12/2022</t>
+          <t>15/12/2022</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>38219</t>
+          <t>379597</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">PagoACH-2914971     </t>
+          <t>DE INDUSTRIAS VENADO</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Z002</t>
+          <t>Z001</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-4230</v>
+        <v>50000</v>
       </c>
       <c r="F22" s="14" t="n"/>
     </row>
     <row r="23" ht="17.25" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>14/12/2022</t>
+          <t>15/12/2022</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>38255</t>
+          <t>68062</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">PagoACH-2915047     </t>
+          <t xml:space="preserve">PagoPRV-2920181     </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1014,24 +1014,24 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-5275.79</v>
+        <v>-5777.1</v>
       </c>
       <c r="F23" s="14" t="n"/>
     </row>
     <row r="24" ht="17.25" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>14/12/2022</t>
+          <t>15/12/2022</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>38279</t>
+          <t>68225</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">PagoPRV-2914777     </t>
+          <t xml:space="preserve">PagoACH-2920189     </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1040,24 +1040,24 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-10500</v>
+        <v>-1546</v>
       </c>
       <c r="F24" s="14" t="n"/>
     </row>
     <row r="25" ht="17.25" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>14/12/2022</t>
+          <t>15/12/2022</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>38282</t>
+          <t>381786</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">PagoACH-2915055     </t>
+          <t xml:space="preserve">CW EPSAS            </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1066,24 +1066,24 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-2800</v>
+        <v>-1056.3</v>
       </c>
       <c r="F25" s="14" t="n"/>
     </row>
     <row r="26" ht="17.25" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>14/12/2022</t>
+          <t>15/12/2022</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>38347</t>
+          <t>68254</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">PagoACH-2914955     </t>
+          <t xml:space="preserve">PagoACH-2920186     </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1092,24 +1092,24 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>-4900</v>
+        <v>-17956.8</v>
       </c>
       <c r="F26" s="14" t="n"/>
     </row>
     <row r="27" ht="17.25" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>14/12/2022</t>
+          <t>15/12/2022</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>38471</t>
+          <t>68340</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">PagoACH-2914967     </t>
+          <t xml:space="preserve">PagoACH-2920176     </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1118,24 +1118,24 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>-4261</v>
+        <v>-7049.7</v>
       </c>
       <c r="F27" s="14" t="n"/>
     </row>
     <row r="28" ht="17.25" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>14/12/2022</t>
+          <t>15/12/2022</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>38620</t>
+          <t>381994</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">PagoACH-2914775     </t>
+          <t xml:space="preserve">CW EPSAS            </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1144,24 +1144,24 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-13440.09</v>
+        <v>-19.5</v>
       </c>
       <c r="F28" s="14" t="n"/>
     </row>
     <row r="29" ht="17.25" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>14/12/2022</t>
+          <t>15/12/2022</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>39722</t>
+          <t>382116</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve">PagoPRV-2914396     </t>
+          <t xml:space="preserve">CW EPSAS            </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1170,24 +1170,24 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-274</v>
+        <v>-58.8</v>
       </c>
       <c r="F29" s="14" t="n"/>
     </row>
     <row r="30" ht="17.25" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>14/12/2022</t>
+          <t>15/12/2022</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>39776</t>
+          <t>68520</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">PagoACH-2914363     </t>
+          <t xml:space="preserve">PagoACH-2920147     </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1196,24 +1196,24 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>-556.8</v>
+        <v>-2705</v>
       </c>
       <c r="F30" s="14" t="n"/>
     </row>
     <row r="31" ht="17.25" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>14/12/2022</t>
+          <t>15/12/2022</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>39812</t>
+          <t>68560</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">PagoPRV-2914378     </t>
+          <t xml:space="preserve">PagoACH-2920143     </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1222,24 +1222,24 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-5273.62</v>
+        <v>-10890.12</v>
       </c>
       <c r="F31" s="14" t="n"/>
     </row>
     <row r="32" ht="17.25" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>14/12/2022</t>
+          <t>15/12/2022</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>39835</t>
+          <t>68578</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">PagoACH-2914247     </t>
+          <t xml:space="preserve">PagoACH-2920137     </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1248,24 +1248,24 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>-17600</v>
+        <v>-4900</v>
       </c>
       <c r="F32" s="14" t="n"/>
     </row>
     <row r="33" ht="17.25" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>14/12/2022</t>
+          <t>15/12/2022</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>39842</t>
+          <t>68605</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">PagoPRV-2914336     </t>
+          <t xml:space="preserve">PagoACH-2920116     </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1274,24 +1274,24 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>-1148</v>
+        <v>-31342.96</v>
       </c>
       <c r="F33" s="14" t="n"/>
     </row>
     <row r="34" ht="17.25" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>14/12/2022</t>
+          <t>15/12/2022</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>39869</t>
+          <t>68640</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">PagoACH-2914355     </t>
+          <t xml:space="preserve">PagoACH-2920106     </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1300,24 +1300,24 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>-835.2</v>
+        <v>-24500</v>
       </c>
       <c r="F34" s="14" t="n"/>
     </row>
     <row r="35" ht="17.25" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>14/12/2022</t>
+          <t>15/12/2022</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>39871</t>
+          <t>68672</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">PagoPRV-2914388     </t>
+          <t xml:space="preserve">PagoACH-2920098     </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1326,24 +1326,24 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-1737</v>
+        <v>-41791.19</v>
       </c>
       <c r="F35" s="14" t="n"/>
     </row>
     <row r="36" ht="17.25" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>14/12/2022</t>
+          <t>15/12/2022</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>39904</t>
+          <t>68729</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">PagoACH-2914197     </t>
+          <t xml:space="preserve">PagoACH-2920121     </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1352,56 +1352,242 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>-3850</v>
+        <v>-11900</v>
       </c>
       <c r="F36" s="14" t="n"/>
     </row>
     <row r="37" ht="17.25" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>14/12/2022</t>
+          <t>15/12/2022</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>68817</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PagoACH-2920071     </t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Z002</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>-750</v>
+      </c>
+      <c r="F37" s="14" t="n"/>
+    </row>
+    <row r="38" ht="17.25" customHeight="1">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>15/12/2022</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>68853</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PagoACH-2920065     </t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Z002</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>-528</v>
+      </c>
+      <c r="F38" s="14" t="n"/>
+    </row>
+    <row r="39" ht="17.25" customHeight="1">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>15/12/2022</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>68909</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PagoACH-2920052     </t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Z002</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>-1142</v>
+      </c>
+      <c r="F39" s="14" t="n"/>
+    </row>
+    <row r="40" ht="17.25" customHeight="1">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>15/12/2022</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>68938</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PagoACH-2920081     </t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Z002</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>-360</v>
+      </c>
+      <c r="F40" s="14" t="n"/>
+    </row>
+    <row r="41" ht="17.25" customHeight="1">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>15/12/2022</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>69716</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PagoPRV-2920035     </t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Z002</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>-15982.21</v>
+      </c>
+      <c r="F41" s="14" t="n"/>
+    </row>
+    <row r="42" ht="17.25" customHeight="1">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>15/12/2022</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>69717</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PagoACH-2920042     </t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Z002</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>-31300</v>
+      </c>
+      <c r="F42" s="14" t="n"/>
+    </row>
+    <row r="43" ht="17.25" customHeight="1">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>15/12/2022</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>536139</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PagoHAB-2920325     </t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Z002</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>-65910</v>
+      </c>
+      <c r="F43" s="14" t="n"/>
+    </row>
+    <row r="44" ht="17.25" customHeight="1">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>15/12/2022</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>431359</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>QR DE ADRIANA JUDITH</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Z001</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>83.40000000000001</v>
+      </c>
+      <c r="F44" s="14" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>15/12/2022</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>SALDO AL CIERRE</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Z002</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Z002</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
         <v>0</v>
       </c>
-      <c r="F37" s="14" t="n"/>
-    </row>
-    <row r="38" ht="17.25" customHeight="1">
-      <c r="F38" s="14" t="n"/>
-    </row>
-    <row r="39" ht="17.25" customHeight="1">
-      <c r="F39" s="14" t="n"/>
-    </row>
-    <row r="40" ht="17.25" customHeight="1">
-      <c r="F40" s="14" t="n"/>
-    </row>
-    <row r="41" ht="17.25" customHeight="1">
-      <c r="F41" s="14" t="n"/>
-    </row>
-    <row r="42" ht="17.25" customHeight="1">
-      <c r="F42" s="14" t="n"/>
-    </row>
-    <row r="43" ht="17.25" customHeight="1">
-      <c r="F43" s="14" t="n"/>
-    </row>
-    <row r="44" ht="17.25" customHeight="1">
-      <c r="F44" s="14" t="n"/>
     </row>
     <row r="51" ht="13.5" customHeight="1" thickBot="1"/>
     <row r="52" ht="13.5" customHeight="1" thickBot="1">
